--- a/ExperimentResults/DRL_GR(shuffled)ProblemParametricStudy.xlsx
+++ b/ExperimentResults/DRL_GR(shuffled)ProblemParametricStudy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liaohaiguang/Desktop/DARPA IDEA/0.ExperimentRaw/DRL_GlobalRouting/MarApr2019/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liaohaiguang/Desktop/DARPA IDEA/1.Project/Github/DQN_GlobalRouting_FinishVersion/DQN_GlobalRouting/ExperimentResults/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA553E2-749F-F74A-BA68-F0B149EA8F62}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2707DA90-84D9-6242-BCE6-CC1CE43B2CDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-47040" yWindow="5160" windowWidth="38400" windowHeight="21140" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1352,8 +1352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AML63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="45" workbookViewId="0">
-      <selection activeCell="W59" sqref="W59"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="50" zoomScaleNormal="45" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
